--- a/QA Task 2/Elevator.xlsx
+++ b/QA Task 2/Elevator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Steps</t>
   </si>
@@ -52,22 +52,6 @@
     <t xml:space="preserve">Press the elevator call button </t>
   </si>
   <si>
-    <t xml:space="preserve">Passengers will enter the elevator and press the floor </t>
-  </si>
-  <si>
-    <t>The elevator door will close and the elevator will 
-start to carry passengers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The passenger will light a cigarette </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The alarm will be activated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The elevator will stop on the nearest floor and open the door </t>
-  </si>
-  <si>
     <t>Step 2</t>
   </si>
   <si>
@@ -78,13 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">The elevator will arrive at the calling destination and the elevator door will open </t>
-  </si>
-  <si>
-    <t>fill the elevator with passengers to maximum capacity</t>
-  </si>
-  <si>
-    <t>the elevator door will close and the elevator will have a hard time 
-moving passengers</t>
   </si>
   <si>
     <t xml:space="preserve">The elevator will take passengers to their destination and open the door </t>
@@ -110,13 +87,48 @@
   </si>
   <si>
     <t>The elevator door remains open until the security problem is resolved.</t>
+  </si>
+  <si>
+    <t>The passengers will get out and the elevator door will remain open.</t>
+  </si>
+  <si>
+    <t>The elevator will stop on the nearest floor and open the door .</t>
+  </si>
+  <si>
+    <t>The passenger will light a cigarette.</t>
+  </si>
+  <si>
+    <t>Passengers will enter the elevator and press the floor.</t>
+  </si>
+  <si>
+    <t>Press the elevator call button.</t>
+  </si>
+  <si>
+    <t>The elevator will arrive at the calling destination and the elevator door will open.</t>
+  </si>
+  <si>
+    <t>The elevator door will close and the elevator will 
+start to carry passengers.</t>
+  </si>
+  <si>
+    <t>The alarm will be activated.</t>
+  </si>
+  <si>
+    <t>The elevator stopped, the door opened.</t>
+  </si>
+  <si>
+    <t>Fill the elevator with passengers to maximum capacity</t>
+  </si>
+  <si>
+    <t>The elevator door will close and the elevator will have a hard time 
+moving passengers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Garamond"/>
       <family val="1"/>
@@ -216,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,14 +244,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,17 +265,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,49 +571,49 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="65" style="11" customWidth="1"/>
-    <col min="6" max="6" width="85.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="65" style="7" customWidth="1"/>
+    <col min="6" max="6" width="85.140625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1">
+    <row r="2" spans="1:6" s="5" customFormat="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -602,145 +625,145 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A9" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="33" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="21" customHeight="1">
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -755,49 +778,49 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="30.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="15.75" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1"/>
